--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579239.290267616</v>
+        <v>3576694.104194331</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>364.7695428246145</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.6679898432817</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4731917137262</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>175.1820422378063</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>59.29719836889097</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>125.418938209067</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>228.1641319420676</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>941.2608351981287</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>941.2608351981287</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>941.2608351981287</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.21241430279</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1899.21241430279</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1540.946715696039</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1155.158463097795</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>744.1725583081873</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>432.2015588994869</v>
+        <v>1112.283780524079</v>
       </c>
       <c r="C8" t="n">
-        <v>432.2015588994869</v>
+        <v>743.3212635836674</v>
       </c>
       <c r="D8" t="n">
-        <v>73.93586029273641</v>
+        <v>743.3212635836674</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>357.5330109854231</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>350.5875102362197</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>426.6632408470972</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1058.381051830409</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2266.238031814185</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>1935.175144470614</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>1582.4064892005</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="X8" t="n">
-        <v>1208.940730939421</v>
+        <v>1502.423112499891</v>
       </c>
       <c r="Y8" t="n">
-        <v>818.8013989636088</v>
+        <v>1112.283780524079</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>141.2628214977854</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>470.6912258035953</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>975.0527656697138</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>180.6287779911392</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="U10" t="n">
-        <v>539.096290169754</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="V10" t="n">
-        <v>284.4118019638671</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>180.6287779911392</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>180.6287779911392</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,7 +5066,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5516,10 +5516,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,7 +6953,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>130.9032309267716</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>159.7974209002381</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>94.43506344194954</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.164270215632821e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>184756.2785481116</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682748</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682763</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682729</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="J4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682775</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682721</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682757</v>
-      </c>
       <c r="N4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26522,46 +26522,46 @@
         <v>-123285.7356165249</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.1435980193</v>
+        <v>466682.1435980195</v>
       </c>
       <c r="D6" t="n">
-        <v>310878.3375042243</v>
+        <v>310878.3375042247</v>
       </c>
       <c r="E6" t="n">
-        <v>-131242.1530581411</v>
+        <v>-131276.8909835767</v>
       </c>
       <c r="F6" t="n">
-        <v>639810.5383226655</v>
+        <v>639775.80039723</v>
       </c>
       <c r="G6" t="n">
-        <v>639810.5383226656</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="H6" t="n">
-        <v>639810.5383226657</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="I6" t="n">
-        <v>639810.5383226654</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="J6" t="n">
-        <v>463387.3191300729</v>
+        <v>463352.5812046368</v>
       </c>
       <c r="K6" t="n">
-        <v>639810.5383226658</v>
+        <v>639775.80039723</v>
       </c>
       <c r="L6" t="n">
-        <v>639810.5383226654</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="M6" t="n">
-        <v>515602.0276146072</v>
+        <v>515567.2896891714</v>
       </c>
       <c r="N6" t="n">
-        <v>639810.5383226656</v>
+        <v>639775.80039723</v>
       </c>
       <c r="O6" t="n">
-        <v>639810.5383226655</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="P6" t="n">
-        <v>639810.5383226655</v>
+        <v>639775.8003972297</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26960,7 +26960,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>215.7324361209784</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>4.961557853854515</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>55.56994881277188</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>206.3109783070688</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.4663446304625</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>237.7348617081305</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>191.8575878534097</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>41.82788288956084</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>58.35886639452337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-2.740183841666113e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>381.285518532932</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>271.6392469280375</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>271.6502746876386</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>88.20185826002117</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
